--- a/data/trans_dic/P16A15-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P16A15-Provincia-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">

--- a/data/trans_dic/P16A15-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P16A15-Provincia-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -656,7 +656,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,94%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -666,17 +666,17 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,93%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>13,37%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,82%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
@@ -686,17 +686,17 @@
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>9,54%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>13,73%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,83%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
@@ -706,12 +706,12 @@
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,22%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>13,56%</t>
         </is>
       </c>
     </row>
@@ -724,7 +724,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,71</t>
+          <t>2,06; 6,6</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -734,17 +734,17 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,72</t>
+          <t>4,3; 10,59</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,58</t>
+          <t>9,93; 17,72</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,78</t>
+          <t>5,16; 12,07</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -754,17 +754,17 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,69</t>
+          <t>6,73; 14,25</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>10,7; 16,64</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,37</t>
+          <t>4,11; 8,22</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
@@ -774,12 +774,12 @@
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,35</t>
+          <t>6,26; 11,17</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,22</t>
+          <t>11,33; 16,13</t>
         </is>
       </c>
     </row>
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,52%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>12,38%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>10,26%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>9,94%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,68%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>14,87%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>12,95%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>12,27%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,11%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>13,65%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>11,63%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>11,14%</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,41</t>
+          <t>4,36; 8,84</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,41</t>
+          <t>9,52; 16,08</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,4</t>
+          <t>7,8; 13,14</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,5</t>
+          <t>7,23; 13,01</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,38</t>
+          <t>5,64; 10,24</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,4</t>
+          <t>12,01; 18,42</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,4</t>
+          <t>10,03; 16,0</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,27</t>
+          <t>9,96; 14,69</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>5,63; 8,88</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>11,63; 16,36</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>9,8; 13,96</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,18</t>
+          <t>9,25; 13,14</t>
         </is>
       </c>
     </row>
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,86%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>10,4%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>12,06%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>15,47%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,24%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>12,24%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>13,34%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>15,81%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,05%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>11,35%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>12,72%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>15,65%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,62</t>
+          <t>5,29; 10,88</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,6</t>
+          <t>7,43; 14,42</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,57</t>
+          <t>8,98; 15,61</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,53</t>
+          <t>12,21; 19,87</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,57</t>
+          <t>5,54; 11,46</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,6</t>
+          <t>8,91; 16,5</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,58</t>
+          <t>9,9; 17,57</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>12,71; 18,98</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,3</t>
+          <t>5,84; 10,07</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,3</t>
+          <t>9,01; 13,85</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>10,22; 15,53</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,21</t>
+          <t>13,26; 17,99</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,56%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>9,86%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>10,56%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>12,31%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,14%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>11,87%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>13,04%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>12,87%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,85%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>10,87%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>11,82%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>12,63%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,53</t>
+          <t>2,57; 6,86</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,31</t>
+          <t>7,54; 12,53</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,54</t>
+          <t>7,88; 14,19</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,66</t>
+          <t>9,12; 16,64</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,5</t>
+          <t>3,32; 7,95</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,31</t>
+          <t>9,59; 14,77</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,53</t>
+          <t>9,75; 16,95</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,32</t>
+          <t>10,27; 15,38</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,26</t>
+          <t>3,51; 6,54</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
+          <t>9,2; 12,77</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,27</t>
+          <t>9,64; 14,56</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,22</t>
+          <t>10,67; 15,06</t>
         </is>
       </c>
     </row>
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,31%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>13,87%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>12,01%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>16,33%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,86%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>18,84%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>13,53%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>21,8%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,58%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>16,39%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>12,78%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>19,29%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,93</t>
+          <t>4,21; 12,5</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,97</t>
+          <t>9,28; 19,26</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,9</t>
+          <t>8,28; 16,92</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,69</t>
+          <t>12,38; 20,58</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,96</t>
+          <t>3,04; 10,02</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,9</t>
+          <t>13,56; 24,32</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,86</t>
+          <t>9,39; 18,49</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,39</t>
+          <t>18,68; 25,29</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,47</t>
+          <t>4,37; 9,4</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,47</t>
+          <t>12,78; 20,41</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,44</t>
+          <t>10,1; 16,34</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,25</t>
+          <t>16,45; 22,03</t>
         </is>
       </c>
     </row>
@@ -1356,62 +1356,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,9%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>13,15%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,73%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>21,33%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>11,16%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>13,45%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>9,21%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>16,87%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,07%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>13,3%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,97%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>19,11%</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,72</t>
+          <t>2,83; 8,4</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,73</t>
+          <t>9,25; 17,13</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,74</t>
+          <t>5,98; 12,98</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,52</t>
+          <t>17,17; 25,87</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,71</t>
+          <t>7,85; 15,58</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,71</t>
+          <t>9,91; 18,04</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,73</t>
+          <t>5,88; 13,33</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,42</t>
+          <t>13,73; 20,11</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>6,06; 10,71</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>10,44; 16,32</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,37</t>
+          <t>6,49; 11,59</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,23</t>
+          <t>16,44; 21,88</t>
         </is>
       </c>
     </row>
@@ -1496,62 +1496,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,72%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>10,52%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,97%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>11,07%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,74%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>10,89%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,77%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>26,24%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,75%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>10,71%</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,87%</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>19,59%</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1564,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,32</t>
+          <t>4,01; 7,71</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,31</t>
+          <t>8,3; 13,35</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,33</t>
+          <t>5,83; 10,28</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,32</t>
+          <t>8,83; 13,78</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,31</t>
+          <t>5,66; 10,13</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,3</t>
+          <t>8,49; 13,51</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,3</t>
+          <t>5,7; 10,03</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>13,71; 54,72</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,16</t>
+          <t>5,47; 8,19</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
+          <t>9,07; 12,52</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,16</t>
+          <t>6,57; 9,51</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>12,33; 38,85</t>
         </is>
       </c>
     </row>
@@ -1636,62 +1636,62 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,79%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,06%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,8%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>9,78%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,72%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>10,01%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>11,0%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>11,94%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,3%</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,58%</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>9,93%</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>10,86%</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1704,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,26</t>
+          <t>4,36; 7,59</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,27</t>
+          <t>5,24; 9,27</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,26</t>
+          <t>6,99; 11,29</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,25</t>
+          <t>7,56; 11,81</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,26</t>
+          <t>6,82; 11,06</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,25</t>
+          <t>7,99; 12,45</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,25</t>
+          <t>8,82; 13,45</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,18</t>
+          <t>10,1; 13,81</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,13</t>
+          <t>6,07; 8,69</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,13</t>
+          <t>7,23; 10,0</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,13</t>
+          <t>8,47; 11,7</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,11</t>
+          <t>9,45; 12,3</t>
         </is>
       </c>
     </row>
@@ -1776,62 +1776,62 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,82%</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>10,29%</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>9,39%</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>12,43%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,89%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>12,28%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>11,0%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>16,58%</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,87%</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>11,3%</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>10,21%</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>14,63%</t>
         </is>
       </c>
     </row>
@@ -1844,62 +1844,62 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>5,02; 6,61</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>9,3; 11,49</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>8,36; 10,35</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>11,35; 13,52</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>7,0; 8,81</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>11,21; 13,41</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>10,02; 12,14</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,04</t>
+          <t>13,8; 24,78</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>6,31; 7,46</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>10,59; 12,07</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>9,47; 10,99</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,02</t>
+          <t>13,03; 20,74</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P16A15-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P16A15-Provincia-trans_dic.xlsx
@@ -661,7 +661,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>9,05%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -671,7 +671,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>13,37%</t>
+          <t>12,29%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -681,7 +681,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>9,77%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>13,73%</t>
+          <t>13,18%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -701,7 +701,7 @@
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>9,4%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>13,56%</t>
+          <t>12,72%</t>
         </is>
       </c>
     </row>
@@ -729,7 +729,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,46; 12,82</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -739,7 +739,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>9,93; 17,72</t>
+          <t>8,96; 16,41</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -749,7 +749,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,6; 14,2</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>10,7; 16,64</t>
+          <t>10,33; 16,08</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -769,7 +769,7 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,76; 11,75</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>11,33; 16,13</t>
+          <t>10,48; 15,22</t>
         </is>
       </c>
     </row>
@@ -811,7 +811,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>9,94%</t>
+          <t>9,43%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>12,27%</t>
+          <t>12,11%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>11,14%</t>
+          <t>10,76%</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>7,23; 13,01</t>
+          <t>6,86; 12,44</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>9,96; 14,69</t>
+          <t>9,82; 14,5</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,7 +919,7 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>9,25; 13,14</t>
+          <t>8,88; 12,68</t>
         </is>
       </c>
     </row>
@@ -951,7 +951,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>15,47%</t>
+          <t>15,06%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -971,7 +971,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>15,81%</t>
+          <t>15,66%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>15,65%</t>
+          <t>15,37%</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>12,21; 19,87</t>
+          <t>11,85; 19,39</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>12,71; 18,98</t>
+          <t>12,55; 18,79</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>13,26; 17,99</t>
+          <t>13,02; 17,66</t>
         </is>
       </c>
     </row>
@@ -1081,7 +1081,7 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>9,86%</t>
+          <t>10,5%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
@@ -1091,7 +1091,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>12,31%</t>
+          <t>11,93%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1101,7 +1101,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>11,87%</t>
+          <t>13,4%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>12,87%</t>
+          <t>10,78%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1121,7 +1121,7 @@
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>10,87%</t>
+          <t>11,98%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>12,63%</t>
+          <t>11,24%</t>
         </is>
       </c>
     </row>
@@ -1149,7 +1149,7 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>7,54; 12,53</t>
+          <t>7,25; 14,36</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>9,12; 16,64</t>
+          <t>8,8; 15,98</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1169,7 +1169,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>9,59; 14,77</t>
+          <t>10,38; 17,33</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>10,27; 15,38</t>
+          <t>6,53; 13,98</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1189,7 +1189,7 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>9,2; 12,77</t>
+          <t>9,83; 14,78</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>10,67; 15,06</t>
+          <t>8,03; 13,6</t>
         </is>
       </c>
     </row>
@@ -1231,7 +1231,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>16,33%</t>
+          <t>16,35%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1251,7 +1251,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>21,8%</t>
+          <t>22,03%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
@@ -1271,7 +1271,7 @@
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>19,29%</t>
+          <t>19,41%</t>
         </is>
       </c>
     </row>
@@ -1299,7 +1299,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>12,38; 20,58</t>
+          <t>12,44; 20,57</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1319,7 +1319,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>18,68; 25,29</t>
+          <t>18,89; 25,49</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1339,7 +1339,7 @@
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>16,45; 22,03</t>
+          <t>16,53; 22,12</t>
         </is>
       </c>
     </row>
@@ -1371,7 +1371,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>21,33%</t>
+          <t>20,95%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1391,7 +1391,7 @@
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>16,87%</t>
+          <t>16,9%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
@@ -1411,7 +1411,7 @@
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>19,11%</t>
+          <t>18,97%</t>
         </is>
       </c>
     </row>
@@ -1439,7 +1439,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>17,17; 25,87</t>
+          <t>16,89; 25,56</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1459,7 +1459,7 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>13,73; 20,11</t>
+          <t>13,77; 20,15</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>16,44; 21,88</t>
+          <t>16,29; 21,72</t>
         </is>
       </c>
     </row>
@@ -1511,7 +1511,7 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>11,07%</t>
+          <t>10,65%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1531,7 +1531,7 @@
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>26,24%</t>
+          <t>34,88%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
@@ -1551,7 +1551,7 @@
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>19,59%</t>
+          <t>24,61%</t>
         </is>
       </c>
     </row>
@@ -1579,7 +1579,7 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>8,83; 13,78</t>
+          <t>8,47; 13,35</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1599,7 +1599,7 @@
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>13,71; 54,72</t>
+          <t>13,44; 68,97</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
@@ -1619,7 +1619,7 @@
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>12,33; 38,85</t>
+          <t>11,9; 51,7</t>
         </is>
       </c>
     </row>
@@ -1651,7 +1651,7 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>9,78%</t>
+          <t>7,73%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -1671,7 +1671,7 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>11,94%</t>
+          <t>12,1%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
@@ -1691,7 +1691,7 @@
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>10,86%</t>
+          <t>9,63%</t>
         </is>
       </c>
     </row>
@@ -1719,7 +1719,7 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>7,56; 11,81</t>
+          <t>3,46; 11,01</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1739,7 +1739,7 @@
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>10,1; 13,81</t>
+          <t>10,25; 13,95</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
@@ -1759,7 +1759,7 @@
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>9,45; 12,3</t>
+          <t>6,1; 11,76</t>
         </is>
       </c>
     </row>
@@ -1791,7 +1791,7 @@
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>12,43%</t>
+          <t>11,45%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -1811,7 +1811,7 @@
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>16,58%</t>
+          <t>18,55%</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
@@ -1831,7 +1831,7 @@
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>14,63%</t>
+          <t>15,1%</t>
         </is>
       </c>
     </row>
@@ -1859,7 +1859,7 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>11,35; 13,52</t>
+          <t>8,85; 12,8</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -1879,7 +1879,7 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>13,8; 24,78</t>
+          <t>13,41; 32,58</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
@@ -1899,7 +1899,7 @@
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>13,03; 20,74</t>
+          <t>12,14; 25,25</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P16A15-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P16A15-Provincia-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -646,7 +647,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -724,69 +725,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2,06; 6,6</t>
+          <t>2,18; 6,64</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>5,46; 12,82</t>
+          <t>5,95; 13,52</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>4,3; 10,59</t>
+          <t>4,44; 10,4</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>8,96; 16,41</t>
+          <t>9,21; 16,46</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>5,16; 12,07</t>
+          <t>4,93; 11,43</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>6,6; 14,2</t>
+          <t>6,44; 14,08</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>6,73; 14,25</t>
+          <t>6,72; 13,58</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>10,33; 16,08</t>
+          <t>10,51; 16,01</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>4,11; 8,22</t>
+          <t>4,08; 8,17</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>6,76; 11,75</t>
+          <t>7,14; 12,71</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>6,26; 11,17</t>
+          <t>6,24; 10,9</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>10,48; 15,22</t>
+          <t>10,47; 14,95</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -864,69 +865,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>4,36; 8,84</t>
+          <t>4,45; 9,02</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>9,52; 16,08</t>
+          <t>9,41; 15,98</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>7,8; 13,14</t>
+          <t>7,76; 13,62</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>6,86; 12,44</t>
+          <t>6,96; 12,68</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>5,64; 10,24</t>
+          <t>5,66; 10,12</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>12,01; 18,42</t>
+          <t>11,74; 18,29</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>10,03; 16,0</t>
+          <t>10,02; 16,05</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>9,82; 14,5</t>
+          <t>9,78; 14,45</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>5,63; 8,88</t>
+          <t>5,66; 8,85</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>11,63; 16,36</t>
+          <t>11,49; 15,99</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>9,8; 13,96</t>
+          <t>9,58; 14,04</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>8,88; 12,68</t>
+          <t>9,18; 12,81</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>5,29; 10,88</t>
+          <t>5,37; 11,19</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>7,43; 14,42</t>
+          <t>7,24; 13,93</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>8,98; 15,61</t>
+          <t>8,82; 15,79</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>11,85; 19,39</t>
+          <t>11,86; 18,75</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>5,54; 11,46</t>
+          <t>5,61; 12,21</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>8,91; 16,5</t>
+          <t>8,86; 15,95</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>9,9; 17,57</t>
+          <t>9,42; 17,69</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>12,55; 18,79</t>
+          <t>12,97; 18,73</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>5,84; 10,07</t>
+          <t>6,13; 10,34</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>9,01; 13,85</t>
+          <t>8,97; 14,03</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>10,22; 15,53</t>
+          <t>10,21; 15,47</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>13,02; 17,66</t>
+          <t>13,09; 17,73</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,57; 6,86</t>
+          <t>2,71; 6,99</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>7,25; 14,36</t>
+          <t>7,32; 14,14</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>7,88; 14,19</t>
+          <t>7,7; 14,11</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>8,8; 15,98</t>
+          <t>8,67; 16,13</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>3,32; 7,95</t>
+          <t>3,17; 7,68</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>10,38; 17,33</t>
+          <t>10,11; 17,11</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>9,75; 16,95</t>
+          <t>9,81; 17,15</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>6,53; 13,98</t>
+          <t>6,28; 14,05</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>3,51; 6,54</t>
+          <t>3,48; 6,52</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>9,83; 14,78</t>
+          <t>9,51; 14,33</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>9,64; 14,56</t>
+          <t>9,75; 14,4</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>8,03; 13,6</t>
+          <t>8,54; 13,74</t>
         </is>
       </c>
     </row>
@@ -1284,69 +1285,69 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>4,21; 12,5</t>
+          <t>4,4; 12,57</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>9,28; 19,26</t>
+          <t>9,3; 19,0</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>8,28; 16,92</t>
+          <t>8,49; 17,22</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>12,44; 20,57</t>
+          <t>12,53; 21,02</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>3,04; 10,02</t>
+          <t>3,15; 9,96</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>13,56; 24,32</t>
+          <t>13,4; 24,5</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>9,39; 18,49</t>
+          <t>9,54; 18,6</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>18,89; 25,49</t>
+          <t>18,43; 25,45</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>4,37; 9,4</t>
+          <t>4,27; 9,37</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>12,78; 20,41</t>
+          <t>12,85; 20,09</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>10,1; 16,34</t>
+          <t>9,66; 16,4</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>16,53; 22,12</t>
+          <t>16,76; 22,3</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1424,69 +1425,69 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>2,83; 8,4</t>
+          <t>2,51; 7,92</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>9,25; 17,13</t>
+          <t>9,39; 17,45</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>5,98; 12,98</t>
+          <t>5,82; 12,76</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>16,89; 25,56</t>
+          <t>17,4; 25,37</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>7,85; 15,58</t>
+          <t>7,77; 15,08</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>9,91; 18,04</t>
+          <t>9,52; 17,41</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>5,88; 13,33</t>
+          <t>6,31; 13,33</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>13,77; 20,15</t>
+          <t>13,98; 20,53</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>6,06; 10,71</t>
+          <t>6,2; 10,54</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>10,44; 16,32</t>
+          <t>10,07; 16,16</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>6,49; 11,59</t>
+          <t>6,72; 11,68</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>16,29; 21,72</t>
+          <t>16,2; 21,51</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1564,62 +1565,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>4,01; 7,71</t>
+          <t>4,06; 8,03</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>8,3; 13,35</t>
+          <t>8,16; 13,3</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>5,83; 10,28</t>
+          <t>5,78; 10,33</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>8,47; 13,35</t>
+          <t>8,46; 12,93</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>5,66; 10,13</t>
+          <t>5,81; 10,06</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>8,49; 13,51</t>
+          <t>8,51; 13,64</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>5,7; 10,03</t>
+          <t>5,85; 9,92</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>13,44; 68,97</t>
+          <t>13,59; 63,29</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>5,47; 8,19</t>
+          <t>5,39; 8,21</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>9,07; 12,52</t>
+          <t>8,89; 12,5</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>6,57; 9,51</t>
+          <t>6,53; 9,6</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>11,9; 51,7</t>
+          <t>11,87; 53,91</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1705,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>4,36; 7,59</t>
+          <t>4,29; 7,82</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>5,24; 9,27</t>
+          <t>5,19; 9,13</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>6,99; 11,29</t>
+          <t>6,84; 11,08</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>3,46; 11,01</t>
+          <t>3,29; 11,17</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>6,82; 11,06</t>
+          <t>6,75; 10,96</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>7,99; 12,45</t>
+          <t>8,14; 12,63</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>8,82; 13,45</t>
+          <t>8,77; 13,45</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>10,25; 13,95</t>
+          <t>10,29; 13,99</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>6,07; 8,69</t>
+          <t>6,1; 8,61</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>7,23; 10,0</t>
+          <t>7,2; 10,13</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>8,47; 11,7</t>
+          <t>8,56; 11,53</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>6,1; 11,76</t>
+          <t>5,69; 11,87</t>
         </is>
       </c>
     </row>
@@ -1844,62 +1845,62 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>5,02; 6,61</t>
+          <t>5,02; 6,64</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>9,3; 11,49</t>
+          <t>9,12; 11,3</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>8,36; 10,35</t>
+          <t>8,36; 10,37</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>8,85; 12,8</t>
+          <t>8,97; 12,83</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>7,0; 8,81</t>
+          <t>7,05; 8,8</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>11,21; 13,41</t>
+          <t>11,16; 13,39</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>10,02; 12,14</t>
+          <t>9,91; 12,15</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>13,41; 32,58</t>
+          <t>13,43; 34,41</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>6,31; 7,46</t>
+          <t>6,21; 7,52</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>10,59; 12,07</t>
+          <t>10,54; 12,07</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>9,47; 10,99</t>
+          <t>9,44; 10,98</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>12,14; 25,25</t>
+          <t>12,29; 24,35</t>
         </is>
       </c>
     </row>
@@ -1928,4 +1929,2048 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que ha consumido medicinas para bajar el colesterol en las dos últimas semanas</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Almería</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>81</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>131</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>10745</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>26514</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>20354</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>38263</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>20385</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>27474</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>27535</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>38182</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>31130</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>53989</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>47889</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>76445</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>5956; 18123</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>17441; 39604</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>13032; 30541</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>28683; 51255</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>12849; 29812</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>18115; 39603</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>19404; 39200</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>30453; 46368</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>21792; 43632</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>41026; 72975</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>36333; 63491</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>62937; 89882</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Cádiz</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>108</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>149</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>32146</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>62594</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>51571</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>48798</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>38709</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>77738</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>67753</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>62190</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>70855</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>140333</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>119325</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>110988</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>21922; 44494</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>47550; 80780</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>38981; 68431</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>36014; 65609</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>28505; 51007</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>61389; 95598</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>52395; 83945</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>50224; 74232</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>56481; 88234</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>118176; 164449</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>98224; 143976</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>94635; 132036</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Córdoba</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>105</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>81</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>173</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>25062</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>33614</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>38415</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>47600</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>27621</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>41750</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>44872</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>54659</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>52684</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>75364</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>83288</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>102258</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>17126; 35670</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>23395; 45025</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>28106; 50298</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>37473; 59259</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>18811; 40948</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>30219; 54395</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>31693; 59502</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>45265; 65397</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>40111; 67641</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>59595; 93148</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>66834; 101339</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>87044; 117963</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Granada</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>112</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>161</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>16362</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>39266</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>39058</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>37287</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>19081</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>51989</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>50485</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>51291</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>35443</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>91254</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>89543</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>88578</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>9721; 25081</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>27377; 52897</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>28472; 52218</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>27094; 50408</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>11783; 28514</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>39242; 66396</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>38009; 66425</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>29855; 66816</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>25388; 47596</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>72457; 109154</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>73863; 109041</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>67327; 108323</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Huelva</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>127</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>182</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>14864</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>29481</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>25359</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>29229</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>12171</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>41372</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>29565</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>45961</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>27035</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>70853</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>54924</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>75190</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>8947; 25554</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>19767; 40395</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>17933; 36373</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>22396; 37574</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>6546; 20690</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>29425; 53791</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>20863; 40653</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>38454; 53096</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>17561; 38526</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>55556; 86831</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>41535; 70486</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>64933; 86396</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Jaén</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>109</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>208</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>13268</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>36040</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>22968</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>56489</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>31031</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>37535</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>25158</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>43440</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>44299</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>73576</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>48126</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>99930</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>6808; 21448</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>25725; 47801</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>15325; 33567</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>46914; 68414</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>21623; 41953</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>26569; 48597</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>17227; 36418</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>35946; 52761</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>34051; 57851</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>55723; 89410</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>36038; 62614</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>85311; 113283</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Málaga</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>81</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>158</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>128</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>239</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>35190</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>69663</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>52305</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>66470</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>49420</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>75449</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>53729</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>296202</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>84609</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>145111</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>106034</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>362672</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>24990; 49362</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>54048; 88034</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>37945; 67827</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>52834; 80746</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>37093; 64234</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>58935; 94462</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>40470; 68572</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>115400; 537503</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>67526; 102873</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>120458; 169403</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>87955; 129341</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>174948; 794325</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Sevilla</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>102</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>151</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>107</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>125</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>253</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>43011</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>54816</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>68532</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>71801</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>68345</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>82260</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>90853</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>86484</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>111356</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>137076</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>159385</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>158285</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>31858; 58099</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>40350; 70924</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>53290; 86285</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>30519; 103742</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>52909; 85881</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>66905; 103796</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>72419; 111119</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>73562; 100021</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>93043; 131480</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>115113; 162003</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>137432; 185004</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>93445; 195072</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>197</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>316</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>317</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>552</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>259</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>339</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>944</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>456</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>716</t>
+        </is>
+      </c>
+      <c r="M28" s="2" t="inlineStr">
+        <is>
+          <t>656</t>
+        </is>
+      </c>
+      <c r="N28" s="2" t="inlineStr">
+        <is>
+          <t>1496</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>190649</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>351988</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>318563</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>395938</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>266762</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>435567</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>389951</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>678408</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>457412</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>787555</t>
+        </is>
+      </c>
+      <c r="M29" s="2" t="inlineStr">
+        <is>
+          <t>708514</t>
+        </is>
+      </c>
+      <c r="N29" s="2" t="inlineStr">
+        <is>
+          <t>1074346</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>164412; 217366</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>311936; 386535</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>283875; 351976</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>310253; 443635</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>238111; 297241</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>395711; 474950</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>351406; 430726</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>491218; 1258568</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>413344; 500464</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>734156; 840868</t>
+        </is>
+      </c>
+      <c r="M30" s="2" t="inlineStr">
+        <is>
+          <t>655378; 761595</t>
+        </is>
+      </c>
+      <c r="N30" s="2" t="inlineStr">
+        <is>
+          <t>874918; 1732706</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>